--- a/products.xlsx
+++ b/products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="297">
   <si>
     <t>ID</t>
   </si>
@@ -57,964 +57,859 @@
     <t>Description for product 2</t>
   </si>
   <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_01.png</t>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_10.jpg</t>
   </si>
   <si>
     <t>Unit 2</t>
   </si>
   <si>
-    <t>Nước ngọt</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Product 3</t>
+  </si>
+  <si>
+    <t>Description for product 3</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_08.jpg</t>
+  </si>
+  <si>
+    <t>Unit 3</t>
+  </si>
+  <si>
+    <t>Product 4</t>
+  </si>
+  <si>
+    <t>Description for product 4</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_05.jpg</t>
+  </si>
+  <si>
+    <t>Unit 4</t>
+  </si>
+  <si>
+    <t>Product 5</t>
+  </si>
+  <si>
+    <t>Description for product 5</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_04.jpg</t>
+  </si>
+  <si>
+    <t>Unit 5</t>
+  </si>
+  <si>
+    <t>Product 6</t>
+  </si>
+  <si>
+    <t>Description for product 6</t>
+  </si>
+  <si>
+    <t>Unit 6</t>
+  </si>
+  <si>
+    <t>Product 7</t>
+  </si>
+  <si>
+    <t>Description for product 7</t>
+  </si>
+  <si>
+    <t>Unit 7</t>
+  </si>
+  <si>
+    <t>Product 8</t>
+  </si>
+  <si>
+    <t>Description for product 8</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_01.jpg</t>
+  </si>
+  <si>
+    <t>Unit 8</t>
+  </si>
+  <si>
+    <t>Discount 58</t>
+  </si>
+  <si>
+    <t>Product 9</t>
+  </si>
+  <si>
+    <t>Description for product 9</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_02.jpg</t>
+  </si>
+  <si>
+    <t>Unit 9</t>
+  </si>
+  <si>
+    <t>Discount 62</t>
+  </si>
+  <si>
+    <t>Product 10</t>
+  </si>
+  <si>
+    <t>Description for product 10</t>
+  </si>
+  <si>
+    <t>Unit 10</t>
+  </si>
+  <si>
+    <t>Product 11</t>
+  </si>
+  <si>
+    <t>Description for product 11</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\CA\Product_C_09.jpg</t>
+  </si>
+  <si>
+    <t>Unit 11</t>
+  </si>
+  <si>
+    <t>Discount 17</t>
+  </si>
+  <si>
+    <t>Product 12</t>
+  </si>
+  <si>
+    <t>Description for product 12</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\DOHOP\Product_DH_01.jpg</t>
+  </si>
+  <si>
+    <t>Unit 12</t>
+  </si>
+  <si>
+    <t>DOHOP</t>
+  </si>
+  <si>
+    <t>Discount 92</t>
+  </si>
+  <si>
+    <t>Product 13</t>
+  </si>
+  <si>
+    <t>Description for product 13</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\DOHOP\Product_DH_04.jpg</t>
+  </si>
+  <si>
+    <t>Unit 13</t>
+  </si>
+  <si>
+    <t>Product 14</t>
+  </si>
+  <si>
+    <t>Description for product 14</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\DOHOP\Product_DH_06.jpg</t>
+  </si>
+  <si>
+    <t>Unit 14</t>
+  </si>
+  <si>
+    <t>Product 15</t>
+  </si>
+  <si>
+    <t>Description for product 15</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\DOHOP\Product_DH_02.jpg</t>
+  </si>
+  <si>
+    <t>Unit 15</t>
+  </si>
+  <si>
+    <t>Product 16</t>
+  </si>
+  <si>
+    <t>Description for product 16</t>
+  </si>
+  <si>
+    <t>Unit 16</t>
+  </si>
+  <si>
+    <t>Product 17</t>
+  </si>
+  <si>
+    <t>Description for product 17</t>
+  </si>
+  <si>
+    <t>Unit 17</t>
+  </si>
+  <si>
+    <t>Discount 81</t>
+  </si>
+  <si>
+    <t>Product 18</t>
+  </si>
+  <si>
+    <t>Description for product 18</t>
+  </si>
+  <si>
+    <t>Unit 18</t>
+  </si>
+  <si>
+    <t>Product 19</t>
+  </si>
+  <si>
+    <t>Description for product 19</t>
+  </si>
+  <si>
+    <t>Unit 19</t>
+  </si>
+  <si>
+    <t>Discount 2</t>
+  </si>
+  <si>
+    <t>Product 20</t>
+  </si>
+  <si>
+    <t>Description for product 20</t>
+  </si>
+  <si>
+    <t>Unit 20</t>
+  </si>
+  <si>
+    <t>Product 21</t>
+  </si>
+  <si>
+    <t>Description for product 21</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\DOHOP\Product_DH_05.jpg</t>
+  </si>
+  <si>
+    <t>Unit 21</t>
+  </si>
+  <si>
+    <t>Product 22</t>
+  </si>
+  <si>
+    <t>Description for product 22</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_04.jpg</t>
+  </si>
+  <si>
+    <t>Unit 22</t>
+  </si>
+  <si>
+    <t>NUOCNGOT</t>
+  </si>
+  <si>
+    <t>Product 23</t>
+  </si>
+  <si>
+    <t>Description for product 23</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_10.jpg</t>
+  </si>
+  <si>
+    <t>Unit 23</t>
+  </si>
+  <si>
+    <t>Product 24</t>
+  </si>
+  <si>
+    <t>Description for product 24</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_08.jpg</t>
+  </si>
+  <si>
+    <t>Unit 24</t>
+  </si>
+  <si>
+    <t>Product 25</t>
+  </si>
+  <si>
+    <t>Description for product 25</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_01.png</t>
+  </si>
+  <si>
+    <t>Unit 25</t>
+  </si>
+  <si>
+    <t>Product 26</t>
+  </si>
+  <si>
+    <t>Description for product 26</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_02.jpg</t>
+  </si>
+  <si>
+    <t>Unit 26</t>
+  </si>
+  <si>
+    <t>Discount 4</t>
+  </si>
+  <si>
+    <t>Product 27</t>
+  </si>
+  <si>
+    <t>Description for product 27</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_06.jpg</t>
+  </si>
+  <si>
+    <t>Unit 27</t>
+  </si>
+  <si>
+    <t>Product 28</t>
+  </si>
+  <si>
+    <t>Description for product 28</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_07.jpg</t>
+  </si>
+  <si>
+    <t>Unit 28</t>
+  </si>
+  <si>
+    <t>Product 29</t>
+  </si>
+  <si>
+    <t>Description for product 29</t>
+  </si>
+  <si>
+    <t>Unit 29</t>
+  </si>
+  <si>
+    <t>Product 30</t>
+  </si>
+  <si>
+    <t>Description for product 30</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\NUOCNGOT\Product_NN_05.jpg</t>
+  </si>
+  <si>
+    <t>Unit 30</t>
+  </si>
+  <si>
+    <t>Product 31</t>
+  </si>
+  <si>
+    <t>Description for product 31</t>
+  </si>
+  <si>
+    <t>Unit 31</t>
+  </si>
+  <si>
+    <t>Discount 94</t>
+  </si>
+  <si>
+    <t>Product 32</t>
+  </si>
+  <si>
+    <t>Description for product 32</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\RAU\Product_R_04.jpg</t>
+  </si>
+  <si>
+    <t>Unit 32</t>
+  </si>
+  <si>
+    <t>RAU</t>
+  </si>
+  <si>
+    <t>Discount 26</t>
+  </si>
+  <si>
+    <t>Product 33</t>
+  </si>
+  <si>
+    <t>Description for product 33</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\RAU\Product_R_05.jpg</t>
+  </si>
+  <si>
+    <t>Unit 33</t>
+  </si>
+  <si>
+    <t>Product 34</t>
+  </si>
+  <si>
+    <t>Description for product 34</t>
+  </si>
+  <si>
+    <t>Unit 34</t>
+  </si>
+  <si>
+    <t>Discount 16</t>
+  </si>
+  <si>
+    <t>Product 35</t>
+  </si>
+  <si>
+    <t>Description for product 35</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\RAU\Product_R_03.jpg</t>
+  </si>
+  <si>
+    <t>Unit 35</t>
+  </si>
+  <si>
+    <t>Product 36</t>
+  </si>
+  <si>
+    <t>Description for product 36</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\RAU\Product_R_06.jpg</t>
+  </si>
+  <si>
+    <t>Unit 36</t>
+  </si>
+  <si>
+    <t>Discount 76</t>
+  </si>
+  <si>
+    <t>Product 37</t>
+  </si>
+  <si>
+    <t>Description for product 37</t>
+  </si>
+  <si>
+    <t>Unit 37</t>
+  </si>
+  <si>
+    <t>Discount 15</t>
+  </si>
+  <si>
+    <t>Product 38</t>
+  </si>
+  <si>
+    <t>Description for product 38</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\RAU\Product_R_10.jpg</t>
+  </si>
+  <si>
+    <t>Unit 38</t>
+  </si>
+  <si>
+    <t>Product 39</t>
+  </si>
+  <si>
+    <t>Description for product 39</t>
+  </si>
+  <si>
+    <t>Unit 39</t>
+  </si>
+  <si>
+    <t>Discount 79</t>
+  </si>
+  <si>
+    <t>Product 40</t>
+  </si>
+  <si>
+    <t>Description for product 40</t>
+  </si>
+  <si>
+    <t>Unit 40</t>
+  </si>
+  <si>
+    <t>Product 41</t>
+  </si>
+  <si>
+    <t>Description for product 41</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\RAU\Product_R_01.jpg</t>
+  </si>
+  <si>
+    <t>Unit 41</t>
+  </si>
+  <si>
+    <t>Product 42</t>
+  </si>
+  <si>
+    <t>Description for product 42</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THIT\Product_T_01.jpg</t>
+  </si>
+  <si>
+    <t>Unit 42</t>
+  </si>
+  <si>
+    <t>THIT</t>
+  </si>
+  <si>
+    <t>Discount 59</t>
+  </si>
+  <si>
+    <t>Product 43</t>
+  </si>
+  <si>
+    <t>Description for product 43</t>
+  </si>
+  <si>
+    <t>Unit 43</t>
+  </si>
+  <si>
+    <t>Product 44</t>
+  </si>
+  <si>
+    <t>Description for product 44</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THIT\Product_T_09.jpg</t>
+  </si>
+  <si>
+    <t>Unit 44</t>
+  </si>
+  <si>
+    <t>Discount 45</t>
+  </si>
+  <si>
+    <t>Product 45</t>
+  </si>
+  <si>
+    <t>Description for product 45</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THIT\Product_T_03.jpg</t>
+  </si>
+  <si>
+    <t>Unit 45</t>
+  </si>
+  <si>
+    <t>Discount 73</t>
+  </si>
+  <si>
+    <t>Product 46</t>
+  </si>
+  <si>
+    <t>Description for product 46</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THIT\Product_T_08.jpg</t>
+  </si>
+  <si>
+    <t>Unit 46</t>
+  </si>
+  <si>
+    <t>Discount 96</t>
+  </si>
+  <si>
+    <t>Product 47</t>
+  </si>
+  <si>
+    <t>Description for product 47</t>
+  </si>
+  <si>
+    <t>Unit 47</t>
+  </si>
+  <si>
+    <t>Discount 28</t>
+  </si>
+  <si>
+    <t>Product 48</t>
+  </si>
+  <si>
+    <t>Description for product 48</t>
+  </si>
+  <si>
+    <t>Unit 48</t>
+  </si>
+  <si>
+    <t>Product 49</t>
+  </si>
+  <si>
+    <t>Description for product 49</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THIT\Product_T_04.jpg</t>
+  </si>
+  <si>
+    <t>Unit 49</t>
+  </si>
+  <si>
+    <t>Discount 50</t>
+  </si>
+  <si>
+    <t>Product 50</t>
+  </si>
+  <si>
+    <t>Description for product 50</t>
+  </si>
+  <si>
+    <t>Unit 50</t>
+  </si>
+  <si>
+    <t>Product 51</t>
+  </si>
+  <si>
+    <t>Description for product 51</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THIT\Product_T_07.jpg</t>
+  </si>
+  <si>
+    <t>Unit 51</t>
+  </si>
+  <si>
+    <t>Discount 51</t>
+  </si>
+  <si>
+    <t>Product 52</t>
+  </si>
+  <si>
+    <t>Description for product 52</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THUCPHAM\Product_TP_01.jpg</t>
+  </si>
+  <si>
+    <t>Unit 52</t>
+  </si>
+  <si>
+    <t>THUCPHAM</t>
+  </si>
+  <si>
+    <t>Product 53</t>
+  </si>
+  <si>
+    <t>Description for product 53</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THUCPHAM\Product_TP_06.jpg</t>
+  </si>
+  <si>
+    <t>Unit 53</t>
+  </si>
+  <si>
+    <t>Product 54</t>
+  </si>
+  <si>
+    <t>Description for product 54</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THUCPHAM\Product_TP_02.jpg</t>
+  </si>
+  <si>
+    <t>Unit 54</t>
+  </si>
+  <si>
+    <t>Discount 21</t>
+  </si>
+  <si>
+    <t>Product 55</t>
+  </si>
+  <si>
+    <t>Description for product 55</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THUCPHAM\Product_TP_03.jpg</t>
+  </si>
+  <si>
+    <t>Unit 55</t>
+  </si>
+  <si>
+    <t>Product 56</t>
+  </si>
+  <si>
+    <t>Description for product 56</t>
+  </si>
+  <si>
+    <t>Unit 56</t>
+  </si>
+  <si>
+    <t>Product 57</t>
+  </si>
+  <si>
+    <t>Description for product 57</t>
+  </si>
+  <si>
+    <t>Unit 57</t>
+  </si>
+  <si>
+    <t>Product 58</t>
+  </si>
+  <si>
+    <t>Description for product 58</t>
+  </si>
+  <si>
+    <t>Unit 58</t>
+  </si>
+  <si>
+    <t>Product 59</t>
+  </si>
+  <si>
+    <t>Description for product 59</t>
+  </si>
+  <si>
+    <t>Unit 59</t>
+  </si>
+  <si>
+    <t>Product 60</t>
+  </si>
+  <si>
+    <t>Description for product 60</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\THUCPHAM\Product_TP_08.jpg</t>
+  </si>
+  <si>
+    <t>Unit 60</t>
+  </si>
+  <si>
+    <t>Product 61</t>
+  </si>
+  <si>
+    <t>Description for product 61</t>
+  </si>
+  <si>
+    <t>Unit 61</t>
+  </si>
+  <si>
+    <t>Discount 95</t>
+  </si>
+  <si>
+    <t>Product 62</t>
+  </si>
+  <si>
+    <t>Description for product 62</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\TRAICAY\Product_TC_07.jpg</t>
+  </si>
+  <si>
+    <t>Unit 62</t>
+  </si>
+  <si>
+    <t>TRAICAY</t>
+  </si>
+  <si>
+    <t>Product 63</t>
+  </si>
+  <si>
+    <t>Description for product 63</t>
+  </si>
+  <si>
+    <t>Unit 63</t>
+  </si>
+  <si>
+    <t>Product 64</t>
+  </si>
+  <si>
+    <t>Description for product 64</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\TRAICAY\Product_TC_06.jpg</t>
+  </si>
+  <si>
+    <t>Unit 64</t>
+  </si>
+  <si>
+    <t>Discount 20</t>
+  </si>
+  <si>
+    <t>Product 65</t>
+  </si>
+  <si>
+    <t>Description for product 65</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\TRAICAY\Product_TC_04.jpg</t>
+  </si>
+  <si>
+    <t>Unit 65</t>
   </si>
   <si>
     <t>Discount 70</t>
   </si>
   <si>
-    <t>Product 3</t>
-  </si>
-  <si>
-    <t>Description for product 3</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 3</t>
-  </si>
-  <si>
-    <t>Discount 15</t>
-  </si>
-  <si>
-    <t>Product 4</t>
-  </si>
-  <si>
-    <t>Description for product 4</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Product 5</t>
-  </si>
-  <si>
-    <t>Description for product 5</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 5</t>
-  </si>
-  <si>
-    <t>Discount 72</t>
-  </si>
-  <si>
-    <t>Product 6</t>
-  </si>
-  <si>
-    <t>Description for product 6</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 6</t>
-  </si>
-  <si>
-    <t>Discount 71</t>
-  </si>
-  <si>
-    <t>Product 7</t>
-  </si>
-  <si>
-    <t>Description for product 7</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 7</t>
-  </si>
-  <si>
-    <t>Product 8</t>
-  </si>
-  <si>
-    <t>Description for product 8</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 8</t>
-  </si>
-  <si>
-    <t>Discount 56</t>
-  </si>
-  <si>
-    <t>Product 9</t>
-  </si>
-  <si>
-    <t>Description for product 9</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 9</t>
-  </si>
-  <si>
-    <t>Product 10</t>
-  </si>
-  <si>
-    <t>Description for product 10</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 10</t>
-  </si>
-  <si>
-    <t>Discount 10</t>
-  </si>
-  <si>
-    <t>Product 11</t>
-  </si>
-  <si>
-    <t>Description for product 11</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\nuocngot\Product_NN_10.jpg</t>
-  </si>
-  <si>
-    <t>Unit 11</t>
-  </si>
-  <si>
-    <t>Discount 85</t>
-  </si>
-  <si>
-    <t>Product 12</t>
-  </si>
-  <si>
-    <t>Description for product 12</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_01.jpg</t>
-  </si>
-  <si>
-    <t>Unit 12</t>
-  </si>
-  <si>
-    <t>Trái cây</t>
-  </si>
-  <si>
-    <t>Product 13</t>
-  </si>
-  <si>
-    <t>Description for product 13</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 13</t>
-  </si>
-  <si>
-    <t>Product 14</t>
-  </si>
-  <si>
-    <t>Description for product 14</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 14</t>
+    <t>Product 66</t>
+  </si>
+  <si>
+    <t>Description for product 66</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\TRAICAY\Product_TC_02.jpg</t>
+  </si>
+  <si>
+    <t>Unit 66</t>
+  </si>
+  <si>
+    <t>Discount 53</t>
+  </si>
+  <si>
+    <t>Product 67</t>
+  </si>
+  <si>
+    <t>Description for product 67</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\TRAICAY\Product_TC_05.jpg</t>
+  </si>
+  <si>
+    <t>Unit 67</t>
+  </si>
+  <si>
+    <t>Product 68</t>
+  </si>
+  <si>
+    <t>Description for product 68</t>
+  </si>
+  <si>
+    <t>Unit 68</t>
+  </si>
+  <si>
+    <t>Product 69</t>
+  </si>
+  <si>
+    <t>Description for product 69</t>
+  </si>
+  <si>
+    <t>Unit 69</t>
+  </si>
+  <si>
+    <t>Product 70</t>
+  </si>
+  <si>
+    <t>Description for product 70</t>
+  </si>
+  <si>
+    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\TRAICAY\Product_TC_01.jpg</t>
+  </si>
+  <si>
+    <t>Unit 70</t>
   </si>
   <si>
     <t>Discount 25</t>
   </si>
   <si>
-    <t>Product 15</t>
-  </si>
-  <si>
-    <t>Description for product 15</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 15</t>
-  </si>
-  <si>
-    <t>Product 16</t>
-  </si>
-  <si>
-    <t>Description for product 16</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 16</t>
-  </si>
-  <si>
-    <t>Product 17</t>
-  </si>
-  <si>
-    <t>Description for product 17</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 17</t>
-  </si>
-  <si>
-    <t>Discount 16</t>
-  </si>
-  <si>
-    <t>Product 18</t>
-  </si>
-  <si>
-    <t>Description for product 18</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 18</t>
-  </si>
-  <si>
-    <t>Discount 80</t>
-  </si>
-  <si>
-    <t>Product 19</t>
-  </si>
-  <si>
-    <t>Description for product 19</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 19</t>
-  </si>
-  <si>
-    <t>Discount 4</t>
-  </si>
-  <si>
-    <t>Product 20</t>
-  </si>
-  <si>
-    <t>Description for product 20</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 20</t>
-  </si>
-  <si>
-    <t>Product 21</t>
-  </si>
-  <si>
-    <t>Description for product 21</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\traicay\Product_TC_10.jpg</t>
-  </si>
-  <si>
-    <t>Unit 21</t>
-  </si>
-  <si>
-    <t>Product 22</t>
-  </si>
-  <si>
-    <t>Description for product 22</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_01.jpg</t>
-  </si>
-  <si>
-    <t>Unit 22</t>
-  </si>
-  <si>
-    <t>Thịt</t>
-  </si>
-  <si>
-    <t>Discount 39</t>
-  </si>
-  <si>
-    <t>Product 23</t>
-  </si>
-  <si>
-    <t>Description for product 23</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 23</t>
-  </si>
-  <si>
-    <t>Product 24</t>
-  </si>
-  <si>
-    <t>Description for product 24</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 24</t>
-  </si>
-  <si>
-    <t>Product 25</t>
-  </si>
-  <si>
-    <t>Description for product 25</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 25</t>
-  </si>
-  <si>
-    <t>Discount 64</t>
-  </si>
-  <si>
-    <t>Product 26</t>
-  </si>
-  <si>
-    <t>Description for product 26</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 26</t>
-  </si>
-  <si>
-    <t>Discount 52</t>
-  </si>
-  <si>
-    <t>Product 27</t>
-  </si>
-  <si>
-    <t>Description for product 27</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 27</t>
-  </si>
-  <si>
-    <t>Product 28</t>
-  </si>
-  <si>
-    <t>Description for product 28</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 28</t>
-  </si>
-  <si>
-    <t>Discount 47</t>
-  </si>
-  <si>
-    <t>Product 29</t>
-  </si>
-  <si>
-    <t>Description for product 29</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 29</t>
-  </si>
-  <si>
-    <t>Discount 98</t>
-  </si>
-  <si>
-    <t>Product 30</t>
-  </si>
-  <si>
-    <t>Description for product 30</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 30</t>
-  </si>
-  <si>
-    <t>Product 31</t>
-  </si>
-  <si>
-    <t>Description for product 31</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thit\Product_T_10.jpg</t>
-  </si>
-  <si>
-    <t>Unit 31</t>
-  </si>
-  <si>
-    <t>Discount 20</t>
-  </si>
-  <si>
-    <t>Product 32</t>
-  </si>
-  <si>
-    <t>Description for product 32</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_01.jpg</t>
-  </si>
-  <si>
-    <t>Unit 32</t>
-  </si>
-  <si>
-    <t>Rau</t>
-  </si>
-  <si>
-    <t>Product 33</t>
-  </si>
-  <si>
-    <t>Description for product 33</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 33</t>
-  </si>
-  <si>
-    <t>Discount 54</t>
-  </si>
-  <si>
-    <t>Product 34</t>
-  </si>
-  <si>
-    <t>Description for product 34</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 34</t>
-  </si>
-  <si>
-    <t>Product 35</t>
-  </si>
-  <si>
-    <t>Description for product 35</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 35</t>
-  </si>
-  <si>
-    <t>Discount 44</t>
-  </si>
-  <si>
-    <t>Product 36</t>
-  </si>
-  <si>
-    <t>Description for product 36</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 36</t>
-  </si>
-  <si>
-    <t>Product 37</t>
-  </si>
-  <si>
-    <t>Description for product 37</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 37</t>
-  </si>
-  <si>
-    <t>Product 38</t>
-  </si>
-  <si>
-    <t>Description for product 38</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 38</t>
-  </si>
-  <si>
-    <t>Discount 14</t>
-  </si>
-  <si>
-    <t>Product 39</t>
-  </si>
-  <si>
-    <t>Description for product 39</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 39</t>
-  </si>
-  <si>
-    <t>Discount 91</t>
-  </si>
-  <si>
-    <t>Product 40</t>
-  </si>
-  <si>
-    <t>Description for product 40</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 40</t>
-  </si>
-  <si>
-    <t>Discount 17</t>
-  </si>
-  <si>
-    <t>Product 41</t>
-  </si>
-  <si>
-    <t>Description for product 41</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\rau\Product_R_10.jpg</t>
-  </si>
-  <si>
-    <t>Unit 41</t>
-  </si>
-  <si>
-    <t>Product 42</t>
-  </si>
-  <si>
-    <t>Description for product 42</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_01.jpg</t>
-  </si>
-  <si>
-    <t>Unit 42</t>
-  </si>
-  <si>
-    <t>Đồ hộp</t>
-  </si>
-  <si>
-    <t>Discount 36</t>
-  </si>
-  <si>
-    <t>Product 43</t>
-  </si>
-  <si>
-    <t>Description for product 43</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 43</t>
-  </si>
-  <si>
-    <t>Discount 12</t>
-  </si>
-  <si>
-    <t>Product 44</t>
-  </si>
-  <si>
-    <t>Description for product 44</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 44</t>
-  </si>
-  <si>
-    <t>Product 45</t>
-  </si>
-  <si>
-    <t>Description for product 45</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 45</t>
-  </si>
-  <si>
-    <t>Product 46</t>
-  </si>
-  <si>
-    <t>Description for product 46</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 46</t>
-  </si>
-  <si>
-    <t>Discount 43</t>
-  </si>
-  <si>
-    <t>Product 47</t>
-  </si>
-  <si>
-    <t>Description for product 47</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 47</t>
-  </si>
-  <si>
-    <t>Product 48</t>
-  </si>
-  <si>
-    <t>Description for product 48</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 48</t>
-  </si>
-  <si>
-    <t>Product 49</t>
-  </si>
-  <si>
-    <t>Description for product 49</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 49</t>
-  </si>
-  <si>
-    <t>Discount 59</t>
-  </si>
-  <si>
-    <t>Product 50</t>
-  </si>
-  <si>
-    <t>Description for product 50</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 50</t>
-  </si>
-  <si>
-    <t>Product 51</t>
-  </si>
-  <si>
-    <t>Description for product 51</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\dohop\Product_DH_10.jpg</t>
-  </si>
-  <si>
-    <t>Unit 51</t>
-  </si>
-  <si>
-    <t>Product 52</t>
-  </si>
-  <si>
-    <t>Description for product 52</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_01.jpg</t>
-  </si>
-  <si>
-    <t>Unit 52</t>
-  </si>
-  <si>
-    <t>Cá</t>
-  </si>
-  <si>
-    <t>Product 53</t>
-  </si>
-  <si>
-    <t>Description for product 53</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 53</t>
-  </si>
-  <si>
-    <t>Discount 35</t>
-  </si>
-  <si>
-    <t>Product 54</t>
-  </si>
-  <si>
-    <t>Description for product 54</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 54</t>
-  </si>
-  <si>
-    <t>Product 55</t>
-  </si>
-  <si>
-    <t>Description for product 55</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 55</t>
-  </si>
-  <si>
-    <t>Product 56</t>
-  </si>
-  <si>
-    <t>Description for product 56</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 56</t>
-  </si>
-  <si>
-    <t>Product 57</t>
-  </si>
-  <si>
-    <t>Description for product 57</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 57</t>
-  </si>
-  <si>
-    <t>Product 58</t>
-  </si>
-  <si>
-    <t>Description for product 58</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 58</t>
-  </si>
-  <si>
-    <t>Discount 67</t>
-  </si>
-  <si>
-    <t>Product 59</t>
-  </si>
-  <si>
-    <t>Description for product 59</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 59</t>
-  </si>
-  <si>
-    <t>Discount 3</t>
-  </si>
-  <si>
-    <t>Product 60</t>
-  </si>
-  <si>
-    <t>Description for product 60</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 60</t>
-  </si>
-  <si>
-    <t>Product 61</t>
-  </si>
-  <si>
-    <t>Description for product 61</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\ca\Product_C_10.jpg</t>
-  </si>
-  <si>
-    <t>Unit 61</t>
-  </si>
-  <si>
-    <t>Product 62</t>
-  </si>
-  <si>
-    <t>Description for product 62</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_01.jpg</t>
-  </si>
-  <si>
-    <t>Unit 62</t>
-  </si>
-  <si>
-    <t>Thực phẩm</t>
-  </si>
-  <si>
-    <t>Product 63</t>
-  </si>
-  <si>
-    <t>Description for product 63</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_02.jpg</t>
-  </si>
-  <si>
-    <t>Unit 63</t>
-  </si>
-  <si>
-    <t>Discount 11</t>
-  </si>
-  <si>
-    <t>Product 64</t>
-  </si>
-  <si>
-    <t>Description for product 64</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_03.jpg</t>
-  </si>
-  <si>
-    <t>Unit 64</t>
-  </si>
-  <si>
-    <t>Discount 86</t>
-  </si>
-  <si>
-    <t>Product 65</t>
-  </si>
-  <si>
-    <t>Description for product 65</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_04.jpg</t>
-  </si>
-  <si>
-    <t>Unit 65</t>
-  </si>
-  <si>
-    <t>Product 66</t>
-  </si>
-  <si>
-    <t>Description for product 66</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_05.jpg</t>
-  </si>
-  <si>
-    <t>Unit 66</t>
-  </si>
-  <si>
-    <t>Discount 33</t>
-  </si>
-  <si>
-    <t>Product 67</t>
-  </si>
-  <si>
-    <t>Description for product 67</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_06.jpg</t>
-  </si>
-  <si>
-    <t>Unit 67</t>
-  </si>
-  <si>
-    <t>Discount 5</t>
-  </si>
-  <si>
-    <t>Product 68</t>
-  </si>
-  <si>
-    <t>Description for product 68</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_07.jpg</t>
-  </si>
-  <si>
-    <t>Unit 68</t>
-  </si>
-  <si>
-    <t>Product 69</t>
-  </si>
-  <si>
-    <t>Description for product 69</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_08.jpg</t>
-  </si>
-  <si>
-    <t>Unit 69</t>
-  </si>
-  <si>
-    <t>Product 70</t>
-  </si>
-  <si>
-    <t>Description for product 70</t>
-  </si>
-  <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_09.jpg</t>
-  </si>
-  <si>
-    <t>Unit 70</t>
-  </si>
-  <si>
     <t>Product 71</t>
   </si>
   <si>
     <t>Description for product 71</t>
   </si>
   <si>
-    <t>C:\IntelliJ\FreshFoodWeb\src\main\webapp\assets\images\products\thucpham\Product_TP_10.jpg</t>
-  </si>
-  <si>
     <t>Unit 71</t>
-  </si>
-  <si>
-    <t>Discount 45</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,11 +1245,11 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1401,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>767.96486426069896</v>
+        <v>793.19941514241498</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1410,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>6.9663158634936195</v>
+        <v>5.2705622549203852</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -1433,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>710.91689444169799</v>
+        <v>817.59040235928433</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1442,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="G3">
-        <v>8.7036078161136583</v>
+        <v>9.1238965011511475</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -1451,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1459,31 +1354,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>589.99604604269462</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>719.34012754845821</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4">
-        <v>6.8478692271073127</v>
+        <v>8.566373388400141</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,22 +1386,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>170.76378552795921</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>567.73952129579538</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5">
-        <v>4.6768154648154159</v>
+        <v>3.7107649497468866</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1515,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1523,22 +1418,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>593.52491281530797</v>
+        <v>498.10028027350143</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>0.41249836788069372</v>
+        <v>5.6081877052449354</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -1547,7 +1442,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1555,31 +1450,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>838.26151087150492</v>
+        <v>521.1591733804255</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>2.6648151580707546</v>
+        <v>6.8456212859714594</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1587,22 +1482,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>938.41469723189721</v>
+        <v>516.77530380564679</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>5.8668466158859935</v>
+        <v>8.6126019789176986</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -1611,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1619,31 +1514,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>822.35548548079146</v>
+        <v>868.68533457917056</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G9">
-        <v>1.0364337262209566</v>
+        <v>4.1333719065423216</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1651,22 +1546,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>961.99506173592385</v>
+        <v>369.85018982819861</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>3.5480113674585798</v>
+        <v>0.33883837664330008</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1675,7 +1570,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1683,22 +1578,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>272.37724225456469</v>
+        <v>463.43930766341151</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>2.4317859269826094</v>
+        <v>1.8538805759384236</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1707,7 +1602,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,31 +1610,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>979.37707686677231</v>
+        <v>143.07801624672121</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>8.3416541649335922</v>
+        <v>1.7585682791461532</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1747,31 +1642,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>778.06525538400956</v>
+        <v>501.35433968172879</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G13">
-        <v>3.9720531489629685</v>
+        <v>3.4864214021375615</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1779,31 +1674,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>708.74554178152675</v>
+        <v>492.24657661964488</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>0.68643044394488428</v>
+        <v>8.9156139605466134</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1811,31 +1706,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>540.63997894216368</v>
+        <v>779.75973227962754</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G15">
-        <v>4.6049400590452372</v>
+        <v>5.8115496229904986</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,31 +1738,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>601.30720222991658</v>
+        <v>676.90416709077681</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G16">
-        <v>4.0695989917678208</v>
+        <v>8.5228528360990978</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1875,31 +1770,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>912.88831712027286</v>
+        <v>439.89719203833755</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>5.6348144762235686</v>
+        <v>1.5237491890816013</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1907,31 +1802,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>113.89520799130358</v>
+        <v>752.80012583088842</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18">
-        <v>7.9890724680104928</v>
+        <v>7.4102498146617704</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1939,31 +1834,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>393.9349028476758</v>
+        <v>607.8121393797079</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G19">
-        <v>6.0904375485096569</v>
+        <v>7.0251673119146698</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1971,31 +1866,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>385.6472802790372</v>
+        <v>941.30390522663492</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G20">
-        <v>6.1095499074546478</v>
+        <v>3.857441505702103</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2003,31 +1898,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D21">
-        <v>962.95284606421899</v>
+        <v>618.42001518736504</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>4.2069991132376403</v>
+        <v>8.0873548279357461</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2035,31 +1930,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D22">
-        <v>413.37080436982586</v>
+        <v>393.67763464754842</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G22">
-        <v>3.80134350447074</v>
+        <v>9.5561613357724635</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2067,31 +1962,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D23">
-        <v>339.509289812068</v>
+        <v>617.29983790448887</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G23">
-        <v>0.4076560502135429</v>
+        <v>9.2880274669018466</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2099,31 +1994,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D24">
-        <v>118.13343782533747</v>
+        <v>950.59288687441301</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G24">
-        <v>1.2434478356736567</v>
+        <v>0.98521185488468221</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,31 +2026,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>897.45801870107277</v>
+        <v>901.6908117652722</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G25">
-        <v>2.5844031174958513</v>
+        <v>4.8210398615549988</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2163,31 +2058,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D26">
-        <v>401.45289977473976</v>
+        <v>617.09551595889047</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G26">
-        <v>3.1222663343388799</v>
+        <v>3.4706301266082207</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2195,31 +2090,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D27">
-        <v>641.80726714180503</v>
+        <v>205.50232185713836</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G27">
-        <v>8.3642600321471896</v>
+        <v>2.5513228930976464</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2227,31 +2122,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>441.70745519571193</v>
+        <v>695.66787726828352</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G28">
-        <v>3.7237147527499093</v>
+        <v>1.3668481033465052</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,31 +2154,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D29">
-        <v>693.30600102006383</v>
+        <v>595.56652031909618</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G29">
-        <v>6.1288635551431225</v>
+        <v>1.4975880359444094</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2291,31 +2186,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D30">
-        <v>776.91180187652867</v>
+        <v>646.38170222040981</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="G30">
-        <v>1.8061816928149454</v>
+        <v>3.445471760978748</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J30" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2323,31 +2218,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>570.72747531167397</v>
+        <v>918.98140246260061</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G31">
-        <v>6.0047846724134111</v>
+        <v>6.5729362453290285</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J31" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2355,31 +2250,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D32">
-        <v>597.82239555439071</v>
+        <v>235.5870931560915</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G32">
-        <v>2.9663798211594585</v>
+        <v>4.6250027791158228</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2387,31 +2282,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D33">
-        <v>432.22874381708567</v>
+        <v>388.76068190741665</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G33">
-        <v>7.0447164269504068</v>
+        <v>7.0397505047850126</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J33" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2419,31 +2314,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>418.4450404189169</v>
+        <v>141.28674784509494</v>
       </c>
       <c r="E34" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G34">
-        <v>6.8625677405144634</v>
+        <v>8.1193598518881878</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2451,31 +2346,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D35">
-        <v>920.66830745240088</v>
+        <v>680.11282530279561</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G35">
-        <v>8.8973012371265821</v>
+        <v>5.22667877256099</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J35" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,31 +2378,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D36">
-        <v>871.59843833142077</v>
+        <v>763.38139158549825</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G36">
-        <v>3.4016668707621722</v>
+        <v>6.5211013894919034</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2515,31 +2410,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D37">
-        <v>167.49591857143872</v>
+        <v>218.94163945638547</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G37">
-        <v>7.974947340396854</v>
+        <v>5.4422469960124111</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,31 +2442,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D38">
-        <v>723.75920887019754</v>
+        <v>135.36360904655726</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G38">
-        <v>3.6569016317273553</v>
+        <v>5.456303860131678</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J38" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2579,31 +2474,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D39">
-        <v>883.91358298054433</v>
+        <v>512.45858151384869</v>
       </c>
       <c r="E39" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G39">
-        <v>1.854038573612683</v>
+        <v>5.3754810081734039</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2611,31 +2506,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D40">
-        <v>546.54304417561661</v>
+        <v>306.7375472458379</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G40">
-        <v>8.4792150303496179</v>
+        <v>9.5352700265836656</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J40" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2643,31 +2538,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D41">
-        <v>656.84857160496654</v>
+        <v>707.42093029531407</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G41">
-        <v>2.6995647813742174</v>
+        <v>1.6164549380995308</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2675,31 +2570,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D42">
-        <v>838.51175785276007</v>
+        <v>904.34816887033094</v>
       </c>
       <c r="E42" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G42">
-        <v>0.18229614446603093</v>
+        <v>1.2536080174445319</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J42" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2707,31 +2602,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="D43">
-        <v>959.9481001517139</v>
+        <v>871.20262843908245</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="F43" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="G43">
-        <v>3.9315503864164869</v>
+        <v>0.12024199011318681</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J43" t="s">
-        <v>207</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2739,31 +2634,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="D44">
-        <v>873.53156572656167</v>
+        <v>938.74591064273557</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="G44">
-        <v>8.4319636750438427</v>
+        <v>9.2424364569838087</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J44" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2771,31 +2666,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D45">
-        <v>939.90084663702442</v>
+        <v>904.83626095323154</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G45">
-        <v>0.21153911392557179</v>
+        <v>1.6814037817025662</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2803,31 +2698,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D46">
-        <v>147.48087279916126</v>
+        <v>487.461821484121</v>
       </c>
       <c r="E46" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G46">
-        <v>7.4092585839414147</v>
+        <v>1.3889687260650352</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J46" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2835,31 +2730,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D47">
-        <v>291.32165505692188</v>
+        <v>393.9545285580968</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="G47">
-        <v>7.0260461427946463</v>
+        <v>1.8317447073015658</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" t="s">
         <v>201</v>
-      </c>
-      <c r="J47" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2867,31 +2762,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D48">
-        <v>128.26352824598965</v>
+        <v>510.33062971515335</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G48">
-        <v>9.9501291075786487</v>
+        <v>0.5077398592532878</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J48" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2899,31 +2794,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D49">
-        <v>122.68665196095216</v>
+        <v>535.25258306775936</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G49">
-        <v>4.2121517038161569</v>
+        <v>6.4141487762237439</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J49" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2931,31 +2826,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D50">
-        <v>819.60963428844843</v>
+        <v>168.41959197202647</v>
       </c>
       <c r="E50" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G50">
-        <v>3.3516415927028276</v>
+        <v>8.6901935142485112</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2963,31 +2858,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="D51">
-        <v>386.40861889253426</v>
+        <v>793.18252142010715</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G51">
-        <v>2.2280915313615903</v>
+        <v>5.6562533749990127</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2995,31 +2890,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D52">
-        <v>403.59631320573988</v>
+        <v>174.28099947471043</v>
       </c>
       <c r="E52" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G52">
-        <v>4.5550450558163655</v>
+        <v>0.54195674479129763</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3027,31 +2922,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D53">
-        <v>479.16396086352319</v>
+        <v>417.99936620211929</v>
       </c>
       <c r="E53" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="F53" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G53">
-        <v>1.3815619440113247</v>
+        <v>5.4495522204535964</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J53" t="s">
-        <v>251</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3059,31 +2954,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D54">
-        <v>742.63546343455175</v>
+        <v>579.66667765935301</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="G54">
-        <v>5.5141691299221911</v>
+        <v>3.1723532273903432</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3091,31 +2986,31 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D55">
-        <v>171.10737975448188</v>
+        <v>114.36982875401372</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F55" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="G55">
-        <v>6.1424507743065524</v>
+        <v>9.1561067488972849</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J55" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3123,31 +3018,31 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D56">
-        <v>285.45368059028954</v>
+        <v>650.97874578148117</v>
       </c>
       <c r="E56" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="G56">
-        <v>4.8735672014186626</v>
+        <v>1.0627347182005253</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3155,31 +3050,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D57">
-        <v>163.25395010359841</v>
+        <v>685.33238865076794</v>
       </c>
       <c r="E57" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="F57" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="G57">
-        <v>3.2219379179856955</v>
+        <v>3.3839518938717128</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3187,31 +3082,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D58">
-        <v>161.33987221489127</v>
+        <v>721.97860920494088</v>
       </c>
       <c r="E58" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="F58" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="G58">
-        <v>1.1956196256966056</v>
+        <v>9.4360077857584166</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J58" t="s">
-        <v>272</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3219,31 +3114,31 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D59">
-        <v>283.02279214776672</v>
+        <v>983.6946191353087</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="G59">
-        <v>2.0841156952160267</v>
+        <v>8.4048267907498602</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J59" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3251,31 +3146,31 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D60">
-        <v>141.16408005837732</v>
+        <v>387.96671548717416</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="G60">
-        <v>4.9101410914647055</v>
+        <v>9.1999982076032403</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J60" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3283,31 +3178,31 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C61" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="D61">
-        <v>458.37020853844933</v>
+        <v>299.65153190794001</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>220</v>
       </c>
       <c r="F61" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="G61">
-        <v>1.3259271860821698</v>
+        <v>7.1891480765710538</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3315,31 +3210,31 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="D62">
-        <v>438.32082195117192</v>
+        <v>292.04917260751824</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="G62">
-        <v>0.37782553042679745</v>
+        <v>7.2564745424009436</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3347,31 +3242,31 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D63">
-        <v>812.368484437495</v>
+        <v>665.61654100895691</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="G63">
-        <v>1.0574830677566871</v>
+        <v>5.2019645076605059</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J63" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3379,31 +3274,31 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D64">
-        <v>800.17065676989228</v>
+        <v>789.42972363027889</v>
       </c>
       <c r="E64" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="F64" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="G64">
-        <v>2.0396478963411968</v>
+        <v>6.363972581192872</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J64" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3411,31 +3306,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D65">
-        <v>851.43908349311369</v>
+        <v>506.5272511623499</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="F65" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="G65">
-        <v>9.4851379227979322</v>
+        <v>7.2825986886262353</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J65" t="s">
-        <v>25</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3443,31 +3338,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D66">
-        <v>487.70058660537001</v>
+        <v>983.05324537181582</v>
       </c>
       <c r="E66" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="G66">
-        <v>8.1383137046276977E-2</v>
+        <v>0.81793389934008531</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J66" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3475,31 +3370,31 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D67">
-        <v>409.67277178793421</v>
+        <v>644.20958287183021</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="F67" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="G67">
-        <v>9.9954124077846842</v>
+        <v>4.1061094710964161</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J67" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3507,31 +3402,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D68">
-        <v>792.44928555151284</v>
+        <v>837.46009011577621</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="G68">
-        <v>7.0751619982079319</v>
+        <v>6.0618499644338133</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J68" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3539,31 +3434,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="D69">
-        <v>871.23676517285173</v>
+        <v>239.18134000741904</v>
       </c>
       <c r="E69" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="G69">
-        <v>6.9204968794611412</v>
+        <v>2.2266569545178116</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,31 +3466,31 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="C70" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="D70">
-        <v>423.24317668049616</v>
+        <v>367.40982743058242</v>
       </c>
       <c r="E70" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="G70">
-        <v>8.8428699350711621</v>
+        <v>8.6574989234281681</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J70" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3603,31 +3498,31 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="D71">
-        <v>128.89055110176764</v>
+        <v>532.4125588732004</v>
       </c>
       <c r="E71" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="F71" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="G71">
-        <v>0.31797568118348662</v>
+        <v>1.7051910158591888</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="J71" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
